--- a/Assets/app/MainGame/Resources/Excel/testans.xlsx
+++ b/Assets/app/MainGame/Resources/Excel/testans.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -75,44 +75,68 @@
     <t>image4</t>
   </si>
   <si>
-    <t>2</t>
+    <t>APPLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">召喚咒語，煉出指定文字：APPLE
+#include&lt;iostream&gt;
+using namespace std;
+int main()
+{   cout &lt;&lt; "[?]" &lt;&lt; endl;
+    return [?][?]
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">召喚咒語，依順序煉出指定文字：NTNU，TAHRD，學科組
+#include&lt;iostream&gt;
+using namespace std;
+int main()
+{   cout &lt;&lt; "[?]" &lt;&lt; endl;
+    [?] &lt;&lt; "TAHRD" &lt;&lt; endl;
+    cout &lt;&lt; "[?]" &lt;&lt; [?];
+    return 0;
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a = 0; , b = 2; return a+b</t>
+    <t>NTNU</t>
+  </si>
+  <si>
+    <t>cout</t>
+  </si>
+  <si>
+    <t>學科組</t>
+  </si>
+  <si>
+    <t>end1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">題目1：召喚咒語，煉出指定數字：147
+#include&lt;iostream&gt;
+using namespace std;
+int main()
+{    cout &lt;&lt; [?][?][?] &lt;&lt; endl;
+    return 0;
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b=201; if (true) then b++  return b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -155,9 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -301,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q3" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:Q3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q4" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:Q4"/>
   <tableColumns count="17">
     <tableColumn id="1" uniqueName="Question" name="Question">
       <xmlColumnPr mapId="1" xpath="/data-set/record/Question" xmlDataType="string"/>
@@ -615,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -703,8 +733,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" ht="74.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="1"/>
@@ -724,18 +754,18 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -745,7 +775,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="29.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1"/>
@@ -758,30 +788,65 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>100</v>
       </c>
       <c r="Q3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="159.5">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>106</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>188</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>41</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
       </c>
     </row>
